--- a/Different Net (file120-Bank).xlsx
+++ b/Different Net (file120-Bank).xlsx
@@ -41,9 +41,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -370,40 +369,834 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
+          <t>Bank Name</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>Bank Net</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Date</t>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>DateTime</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>2009188</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DOAN TO CHAN</t>
+        </is>
+      </c>
+      <c r="C2" s="0">
+        <v>105811239</v>
+      </c>
+      <c r="D2" s="0">
+        <v>5290562</v>
+      </c>
+      <c r="E2" s="0">
+        <v>81755069</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>DOAN TO CHAN</t>
+        </is>
+      </c>
+      <c r="G2" s="0">
+        <v>100520677</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>January 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2009189</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DANG NU</t>
+        </is>
+      </c>
+      <c r="C3" s="0">
+        <v>165625445</v>
+      </c>
+      <c r="D3" s="0">
+        <v>8281272</v>
+      </c>
+      <c r="E3" s="0">
+        <v>166350955</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>DANG NU</t>
+        </is>
+      </c>
+      <c r="G3" s="0">
+        <v>157344173</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>January 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2009436</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DONG TUAN DAT</t>
+        </is>
+      </c>
+      <c r="C4" s="0">
+        <v>161004102</v>
+      </c>
+      <c r="D4" s="0">
+        <v>8050205</v>
+      </c>
+      <c r="E4" s="0">
+        <v>159419107</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>DONG TUAN DAT</t>
+        </is>
+      </c>
+      <c r="G4" s="0">
+        <v>152953897</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>January 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>2009527</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>HUYNH QUOC VINH</t>
         </is>
       </c>
-      <c r="C2" s="0">
+      <c r="C5" s="0">
         <v>44880935</v>
       </c>
-      <c r="D2" s="0">
+      <c r="D5" s="0">
         <v>2244047</v>
       </c>
-      <c r="E2" s="0">
+      <c r="E5" s="0">
+        <v>42132888</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>HUYNH QUOC VINH</t>
+        </is>
+      </c>
+      <c r="G5" s="0">
         <v>42636888</v>
       </c>
-      <c r="F2" s="0">
-        <v>42132888</v>
-      </c>
-      <c r="G2" s="1">
-        <v>44472</v>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>March 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2009888</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>NGUYEN THI DIEP</t>
+        </is>
+      </c>
+      <c r="C6" s="0">
+        <v>147730170</v>
+      </c>
+      <c r="D6" s="0">
+        <v>7386509</v>
+      </c>
+      <c r="E6" s="0">
+        <v>114535690</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NGUYEN THI DIEP</t>
+        </is>
+      </c>
+      <c r="G6" s="0">
+        <v>140343661</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>January 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2014888</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DONG THUY DAN</t>
+        </is>
+      </c>
+      <c r="C7" s="0">
+        <v>112431958</v>
+      </c>
+      <c r="D7" s="0">
+        <v>5621598</v>
+      </c>
+      <c r="E7" s="0">
+        <v>128144672</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>DONG THUY DAN</t>
+        </is>
+      </c>
+      <c r="G7" s="0">
+        <v>106810360</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>January 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2019937</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>NGUYEN TRAN THIEN THANH &amp; NGUYEN THI XUAN PHUONG</t>
+        </is>
+      </c>
+      <c r="C8" s="0">
+        <v>100502560</v>
+      </c>
+      <c r="D8" s="0">
+        <v>5025128</v>
+      </c>
+      <c r="E8" s="0">
+        <v>78148054</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NGUYEN TRAN THI</t>
+        </is>
+      </c>
+      <c r="G8" s="0">
+        <v>95477432</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>January 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2021296</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>TRAN PHAM BINH &amp; NGUYEN THI VIET NGA</t>
+        </is>
+      </c>
+      <c r="C9" s="0">
+        <v>143300114</v>
+      </c>
+      <c r="D9" s="0">
+        <v>7165006</v>
+      </c>
+      <c r="E9" s="0">
+        <v>153724520</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>TRAN PHAM BINH</t>
+        </is>
+      </c>
+      <c r="G9" s="0">
+        <v>136135108</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>January 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2028263</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>TRAN THI QUYNH CHAU</t>
+        </is>
+      </c>
+      <c r="C10" s="0">
+        <v>121473754</v>
+      </c>
+      <c r="D10" s="0">
+        <v>6073688</v>
+      </c>
+      <c r="E10" s="0">
+        <v>121350218</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>TRAN THI QUYNH</t>
+        </is>
+      </c>
+      <c r="G10" s="0">
+        <v>115400066</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>January 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2052055</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>TRAN CO DANH</t>
+        </is>
+      </c>
+      <c r="C11" s="0">
+        <v>108212926</v>
+      </c>
+      <c r="D11" s="0">
+        <v>5410646</v>
+      </c>
+      <c r="E11" s="0">
+        <v>154770857</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>TRAN CO DANH</t>
+        </is>
+      </c>
+      <c r="G11" s="0">
+        <v>102802280</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>January 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2052337</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>LE TRUNG TIN &amp; VO THI LOL</t>
+        </is>
+      </c>
+      <c r="C12" s="0">
+        <v>126580056</v>
+      </c>
+      <c r="D12" s="0">
+        <v>6329003</v>
+      </c>
+      <c r="E12" s="0">
+        <v>139938935</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>LE TRUNG TIN &amp;</t>
+        </is>
+      </c>
+      <c r="G12" s="0">
+        <v>120251053</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>January 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2085896</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>NGUYEN THI HAO &amp; VO QUOC DAN</t>
+        </is>
+      </c>
+      <c r="C13" s="0">
+        <v>117603409</v>
+      </c>
+      <c r="D13" s="0">
+        <v>5880170</v>
+      </c>
+      <c r="E13" s="0">
+        <v>115974732</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NGUYEN THI HAO</t>
+        </is>
+      </c>
+      <c r="G13" s="0">
+        <v>111723239</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>January 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2100350</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>DANG THI HOANG YEN &amp; TRAN KHANH CUONG</t>
+        </is>
+      </c>
+      <c r="C14" s="0">
+        <v>191585467</v>
+      </c>
+      <c r="D14" s="0">
+        <v>9579273</v>
+      </c>
+      <c r="E14" s="0">
+        <v>200643588</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>DANG THI HOANG</t>
+        </is>
+      </c>
+      <c r="G14" s="0">
+        <v>182006194</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>January 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2179467</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>NGUYEN THI THANH HUONG &amp; KIEU THANH CA</t>
+        </is>
+      </c>
+      <c r="C15" s="0">
+        <v>127623179</v>
+      </c>
+      <c r="D15" s="0">
+        <v>6381159</v>
+      </c>
+      <c r="E15" s="0">
+        <v>130510344</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NGUYEN THI THAN</t>
+        </is>
+      </c>
+      <c r="G15" s="0">
+        <v>121242020</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>January 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2200071</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>PHAM BAO THO &amp; NGUYEN THANH TRUNG</t>
+        </is>
+      </c>
+      <c r="C16" s="0">
+        <v>217546623</v>
+      </c>
+      <c r="D16" s="0">
+        <v>10877331</v>
+      </c>
+      <c r="E16" s="0">
+        <v>203013805</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>PHAM BAO THO &amp;</t>
+        </is>
+      </c>
+      <c r="G16" s="0">
+        <v>206669292</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>January 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2203112</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>VO THI PHI PHUONG &amp; PHAM VIET BAC</t>
+        </is>
+      </c>
+      <c r="C17" s="0">
+        <v>106019854</v>
+      </c>
+      <c r="D17" s="0">
+        <v>5300993</v>
+      </c>
+      <c r="E17" s="0">
+        <v>138369903</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>VO THI PHI PHUO</t>
+        </is>
+      </c>
+      <c r="G17" s="0">
+        <v>100718861</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>January 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2203399</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>HUYNH LE HOANG QUAN &amp; NGUYEN THI THU THUY</t>
+        </is>
+      </c>
+      <c r="C18" s="0">
+        <v>116227870</v>
+      </c>
+      <c r="D18" s="0">
+        <v>5811394</v>
+      </c>
+      <c r="E18" s="0">
+        <v>118081923</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>HUYNH LE HOANG</t>
+        </is>
+      </c>
+      <c r="G18" s="0">
+        <v>110416476</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>January 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2203569</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>NGUYEN THI DIEM HAN &amp; NGUYEN CHI BINH</t>
+        </is>
+      </c>
+      <c r="C19" s="0">
+        <v>102535510</v>
+      </c>
+      <c r="D19" s="0">
+        <v>5126776</v>
+      </c>
+      <c r="E19" s="0">
+        <v>120953688</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NGUYEN THI DIEM</t>
+        </is>
+      </c>
+      <c r="G19" s="0">
+        <v>97408734</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>January 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2277158</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>TRAN VAN TRI &amp; LE THI KIM LIEN</t>
+        </is>
+      </c>
+      <c r="C20" s="0">
+        <v>116168060</v>
+      </c>
+      <c r="D20" s="0">
+        <v>5808403</v>
+      </c>
+      <c r="E20" s="0">
+        <v>112312778</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>TRAN VAN TRI &amp;</t>
+        </is>
+      </c>
+      <c r="G20" s="0">
+        <v>110359657</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>January 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2348854</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>NGUYEN THI HUONG LAN &amp; NGUYEN MINH CUONG</t>
+        </is>
+      </c>
+      <c r="C21" s="0">
+        <v>103623436</v>
+      </c>
+      <c r="D21" s="0">
+        <v>5181172</v>
+      </c>
+      <c r="E21" s="0">
+        <v>99695756</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NGUYEN THI HUON</t>
+        </is>
+      </c>
+      <c r="G21" s="0">
+        <v>98442264</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>January 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2350738</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>DANG QUOC HUNG &amp; NGUYEN THI CAM TU</t>
+        </is>
+      </c>
+      <c r="C22" s="0">
+        <v>115519618</v>
+      </c>
+      <c r="D22" s="0">
+        <v>5775981</v>
+      </c>
+      <c r="E22" s="0">
+        <v>139103333</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>DANG QUOC HUNG</t>
+        </is>
+      </c>
+      <c r="G22" s="0">
+        <v>109743637</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>January 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2452239</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>DAO THUY HIEN &amp; LE TRONG DAI</t>
+        </is>
+      </c>
+      <c r="C23" s="0">
+        <v>174918778</v>
+      </c>
+      <c r="D23" s="0">
+        <v>8745939</v>
+      </c>
+      <c r="E23" s="0">
+        <v>178489337</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>DAO THUY HIEN &amp;</t>
+        </is>
+      </c>
+      <c r="G23" s="0">
+        <v>166172839</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>January 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2665065</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>TRINH THAI HUONG &amp; VOONG VINH LE</t>
+        </is>
+      </c>
+      <c r="C24" s="0">
+        <v>119679936</v>
+      </c>
+      <c r="D24" s="0">
+        <v>5983997</v>
+      </c>
+      <c r="E24" s="0">
+        <v>128811571</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>TRINH THAI HUON</t>
+        </is>
+      </c>
+      <c r="G24" s="0">
+        <v>113695939</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>January 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2784849</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>DANG THI THUY HANG &amp; NGUYEN KIM TAM</t>
+        </is>
+      </c>
+      <c r="C25" s="0">
+        <v>115040142</v>
+      </c>
+      <c r="D25" s="0">
+        <v>5752007</v>
+      </c>
+      <c r="E25" s="0">
+        <v>116276922</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>DANG THI THUY H</t>
+        </is>
+      </c>
+      <c r="G25" s="0">
+        <v>109288135</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>January 2021</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Different Net (file120-Bank).xlsx
+++ b/Different Net (file120-Bank).xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nkhoi005\Documents\GitHub\Alteryx_RMS-Tax-bonus-report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nkhoi005\Documents\Alteryx_RMS-Tax-bonus-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774E9BC2-9207-4F79-B0E7-96B9C745BE0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602A26FB-3416-411E-8684-F453C99F6216}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6225" yWindow="975" windowWidth="21600" windowHeight="11265" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Change" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -589,7 +590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -1257,4 +1258,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A958FD75-B8DF-4C54-B08A-05D0C4EC1D85}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>